--- a/documents-export-2024-7-4/定量AOP.xlsx
+++ b/documents-export-2024-7-4/定量AOP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\41769\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\edc-web\documents-export-2024-7-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C111587-19EE-4885-9645-BEF9D90BCDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E32142-9883-4F94-96B8-EE06977C49B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18876" yWindow="11652" windowWidth="18552" windowHeight="11796" xr2:uid="{B9EEBCF3-DDD6-4C2A-BF08-B276835EDF88}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B9EEBCF3-DDD6-4C2A-BF08-B276835EDF88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="349">
   <si>
     <t>MIE</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1364,6 +1364,10 @@
   </si>
   <si>
     <t>AOP_293</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1454,9 +1458,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1494,7 +1498,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1600,7 +1604,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1742,7 +1746,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1750,20 +1754,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E9DB61-0852-4855-908C-9C43DFD417EA}">
-  <dimension ref="A1:F294"/>
+  <dimension ref="A1:G294"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
+      <selection activeCell="J285" sqref="J285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="1"/>
     <col min="2" max="2" width="8.6640625" style="2"/>
-    <col min="3" max="16384" width="8.6640625" style="3"/>
+    <col min="3" max="5" width="8.6640625" style="3"/>
+    <col min="6" max="6" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1779,8 +1785,11 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1793,8 +1802,11 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1804,104 +1816,143 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -1914,8 +1965,11 @@
       <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -1928,8 +1982,11 @@
       <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1942,8 +1999,11 @@
       <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -1953,8 +2013,11 @@
       <c r="C19" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -1970,8 +2033,11 @@
       <c r="E20" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
@@ -1987,8 +2053,11 @@
       <c r="E21" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
@@ -2001,8 +2070,11 @@
       <c r="D22" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -2018,8 +2090,11 @@
       <c r="E23" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
@@ -2035,8 +2110,11 @@
       <c r="E24" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -2052,8 +2130,11 @@
       <c r="E25" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
@@ -2072,8 +2153,11 @@
       <c r="F26" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
@@ -2092,8 +2176,11 @@
       <c r="F27" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -2109,8 +2196,11 @@
       <c r="E28" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>55</v>
       </c>
@@ -2126,8 +2216,11 @@
       <c r="E29" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
@@ -2140,8 +2233,11 @@
       <c r="D30" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
@@ -2154,8 +2250,11 @@
       <c r="D31" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>59</v>
       </c>
@@ -2168,8 +2267,11 @@
       <c r="D32" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -2185,8 +2287,11 @@
       <c r="E33" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -2202,8 +2307,11 @@
       <c r="E34" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -2216,8 +2324,11 @@
       <c r="D35" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>64</v>
       </c>
@@ -2236,8 +2347,11 @@
       <c r="F36" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>65</v>
       </c>
@@ -2256,8 +2370,11 @@
       <c r="F37" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>66</v>
       </c>
@@ -2273,8 +2390,11 @@
       <c r="E38" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>67</v>
       </c>
@@ -2293,8 +2413,11 @@
       <c r="F39" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>68</v>
       </c>
@@ -2313,8 +2436,11 @@
       <c r="F40" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>69</v>
       </c>
@@ -2333,8 +2459,11 @@
       <c r="F41" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>70</v>
       </c>
@@ -2353,8 +2482,11 @@
       <c r="F42" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>71</v>
       </c>
@@ -2373,8 +2505,11 @@
       <c r="F43" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>72</v>
       </c>
@@ -2393,8 +2528,11 @@
       <c r="F44" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>73</v>
       </c>
@@ -2413,8 +2551,11 @@
       <c r="F45" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>74</v>
       </c>
@@ -2430,8 +2571,11 @@
       <c r="E46" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>75</v>
       </c>
@@ -2447,8 +2591,11 @@
       <c r="E47" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>76</v>
       </c>
@@ -2461,8 +2608,11 @@
       <c r="D48" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>78</v>
       </c>
@@ -2478,8 +2628,11 @@
       <c r="E49" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>79</v>
       </c>
@@ -2495,8 +2648,11 @@
       <c r="E50" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>80</v>
       </c>
@@ -2512,8 +2668,11 @@
       <c r="E51" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>82</v>
       </c>
@@ -2529,8 +2688,11 @@
       <c r="E52" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>83</v>
       </c>
@@ -2546,8 +2708,11 @@
       <c r="E53" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>84</v>
       </c>
@@ -2563,8 +2728,11 @@
       <c r="E54" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>86</v>
       </c>
@@ -2580,8 +2748,11 @@
       <c r="E55" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>88</v>
       </c>
@@ -2597,8 +2768,11 @@
       <c r="E56" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>89</v>
       </c>
@@ -2614,8 +2788,11 @@
       <c r="E57" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>91</v>
       </c>
@@ -2631,8 +2808,11 @@
       <c r="E58" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>92</v>
       </c>
@@ -2648,8 +2828,11 @@
       <c r="E59" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>93</v>
       </c>
@@ -2665,8 +2848,11 @@
       <c r="E60" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>95</v>
       </c>
@@ -2685,8 +2871,11 @@
       <c r="F61" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>96</v>
       </c>
@@ -2702,8 +2891,11 @@
       <c r="E62" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>97</v>
       </c>
@@ -2719,8 +2911,11 @@
       <c r="E63" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>98</v>
       </c>
@@ -2739,8 +2934,11 @@
       <c r="F64" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>99</v>
       </c>
@@ -2759,8 +2957,11 @@
       <c r="F65" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>100</v>
       </c>
@@ -2776,8 +2977,11 @@
       <c r="E66" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>101</v>
       </c>
@@ -2793,8 +2997,11 @@
       <c r="E67" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>102</v>
       </c>
@@ -2807,8 +3014,11 @@
       <c r="D68" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>104</v>
       </c>
@@ -2821,8 +3031,11 @@
       <c r="D69" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>105</v>
       </c>
@@ -2835,8 +3048,11 @@
       <c r="D70" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>107</v>
       </c>
@@ -2849,8 +3065,11 @@
       <c r="D71" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>109</v>
       </c>
@@ -2863,8 +3082,11 @@
       <c r="D72" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>110</v>
       </c>
@@ -2877,8 +3099,11 @@
       <c r="D73" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>112</v>
       </c>
@@ -2891,8 +3116,11 @@
       <c r="D74" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>113</v>
       </c>
@@ -2905,8 +3133,11 @@
       <c r="D75" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>115</v>
       </c>
@@ -2919,8 +3150,11 @@
       <c r="D76" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>117</v>
       </c>
@@ -2933,8 +3167,11 @@
       <c r="D77" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>119</v>
       </c>
@@ -2947,8 +3184,11 @@
       <c r="D78" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>121</v>
       </c>
@@ -2961,8 +3201,11 @@
       <c r="D79" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>124</v>
       </c>
@@ -2975,8 +3218,11 @@
       <c r="D80" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G80" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>126</v>
       </c>
@@ -2989,8 +3235,11 @@
       <c r="D81" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G81" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>128</v>
       </c>
@@ -3003,8 +3252,11 @@
       <c r="D82" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G82" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>129</v>
       </c>
@@ -3017,8 +3269,11 @@
       <c r="D83" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G83" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>131</v>
       </c>
@@ -3031,8 +3286,11 @@
       <c r="D84" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G84" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>133</v>
       </c>
@@ -3045,8 +3303,11 @@
       <c r="D85" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G85" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>135</v>
       </c>
@@ -3059,8 +3320,11 @@
       <c r="D86" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G86" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>137</v>
       </c>
@@ -3073,8 +3337,11 @@
       <c r="D87" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G87" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>139</v>
       </c>
@@ -3084,8 +3351,11 @@
       <c r="C88" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G88" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>140</v>
       </c>
@@ -3095,8 +3365,11 @@
       <c r="C89" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G89" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>141</v>
       </c>
@@ -3109,8 +3382,11 @@
       <c r="D90" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G90" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>142</v>
       </c>
@@ -3123,8 +3399,11 @@
       <c r="D91" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G91" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>143</v>
       </c>
@@ -3137,8 +3416,11 @@
       <c r="D92" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G92" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>144</v>
       </c>
@@ -3151,8 +3433,11 @@
       <c r="D93" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G93" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>145</v>
       </c>
@@ -3165,8 +3450,11 @@
       <c r="D94" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G94" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>146</v>
       </c>
@@ -3176,8 +3464,11 @@
       <c r="C95" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G95" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>147</v>
       </c>
@@ -3187,8 +3478,11 @@
       <c r="C96" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G96" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>148</v>
       </c>
@@ -3198,8 +3492,11 @@
       <c r="C97" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G97" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>149</v>
       </c>
@@ -3209,8 +3506,11 @@
       <c r="C98" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G98" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>150</v>
       </c>
@@ -3220,8 +3520,11 @@
       <c r="C99" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G99" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>151</v>
       </c>
@@ -3231,8 +3534,11 @@
       <c r="C100" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G100" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>152</v>
       </c>
@@ -3242,8 +3548,11 @@
       <c r="C101" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>153</v>
       </c>
@@ -3253,8 +3562,11 @@
       <c r="C102" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G102" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>154</v>
       </c>
@@ -3264,8 +3576,11 @@
       <c r="C103" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G103" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>155</v>
       </c>
@@ -3275,8 +3590,11 @@
       <c r="C104" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G104" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>156</v>
       </c>
@@ -3286,8 +3604,11 @@
       <c r="C105" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G105" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>157</v>
       </c>
@@ -3297,8 +3618,11 @@
       <c r="C106" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G106" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>158</v>
       </c>
@@ -3308,8 +3632,11 @@
       <c r="C107" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G107" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>159</v>
       </c>
@@ -3319,8 +3646,11 @@
       <c r="C108" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G108" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>160</v>
       </c>
@@ -3330,8 +3660,11 @@
       <c r="C109" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G109" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>161</v>
       </c>
@@ -3341,8 +3674,11 @@
       <c r="C110" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G110" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>162</v>
       </c>
@@ -3352,8 +3688,11 @@
       <c r="C111" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G111" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>163</v>
       </c>
@@ -3363,8 +3702,11 @@
       <c r="C112" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G112" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>164</v>
       </c>
@@ -3374,8 +3716,11 @@
       <c r="C113" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G113" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>165</v>
       </c>
@@ -3385,8 +3730,11 @@
       <c r="C114" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G114" s="3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>166</v>
       </c>
@@ -3396,8 +3744,11 @@
       <c r="C115" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G115" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>167</v>
       </c>
@@ -3407,8 +3758,11 @@
       <c r="C116" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G116" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>168</v>
       </c>
@@ -3418,8 +3772,11 @@
       <c r="C117" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G117" s="3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>169</v>
       </c>
@@ -3429,16 +3786,22 @@
       <c r="C118" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G118" s="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G119" s="3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>171</v>
       </c>
@@ -3448,8 +3811,11 @@
       <c r="C120" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G120" s="3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>173</v>
       </c>
@@ -3462,8 +3828,11 @@
       <c r="D121" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G121" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>174</v>
       </c>
@@ -3476,8 +3845,11 @@
       <c r="D122" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G122" s="3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>175</v>
       </c>
@@ -3487,8 +3859,11 @@
       <c r="C123" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G123" s="3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>176</v>
       </c>
@@ -3504,8 +3879,11 @@
       <c r="E124" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G124" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>177</v>
       </c>
@@ -3521,8 +3899,11 @@
       <c r="E125" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G125" s="3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>178</v>
       </c>
@@ -3535,8 +3916,11 @@
       <c r="D126" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G126" s="3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>179</v>
       </c>
@@ -3552,8 +3936,11 @@
       <c r="E127" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G127" s="3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>180</v>
       </c>
@@ -3569,8 +3956,11 @@
       <c r="E128" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128" s="3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>181</v>
       </c>
@@ -3586,8 +3976,11 @@
       <c r="E129" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129" s="3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>182</v>
       </c>
@@ -3603,8 +3996,11 @@
       <c r="E130" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G130" s="3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>183</v>
       </c>
@@ -3620,8 +4016,11 @@
       <c r="E131" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131" s="3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>184</v>
       </c>
@@ -3637,8 +4036,11 @@
       <c r="E132" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G132" s="3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>185</v>
       </c>
@@ -3654,8 +4056,11 @@
       <c r="E133" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G133" s="3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>186</v>
       </c>
@@ -3668,8 +4073,11 @@
       <c r="D134" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G134" s="3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>187</v>
       </c>
@@ -3682,8 +4090,11 @@
       <c r="D135" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G135" s="3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>188</v>
       </c>
@@ -3696,8 +4107,11 @@
       <c r="D136" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G136" s="3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>189</v>
       </c>
@@ -3713,8 +4127,11 @@
       <c r="E137" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G137" s="3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>190</v>
       </c>
@@ -3730,8 +4147,11 @@
       <c r="E138" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G138" s="3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>191</v>
       </c>
@@ -3744,8 +4164,11 @@
       <c r="D139" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G139" s="3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>192</v>
       </c>
@@ -3764,8 +4187,11 @@
       <c r="F140" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G140" s="3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>193</v>
       </c>
@@ -3784,8 +4210,11 @@
       <c r="F141" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G141" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>194</v>
       </c>
@@ -3801,8 +4230,11 @@
       <c r="E142" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G142" s="3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>195</v>
       </c>
@@ -3821,8 +4253,11 @@
       <c r="F143" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G143" s="3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>196</v>
       </c>
@@ -3841,8 +4276,11 @@
       <c r="F144" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G144" s="3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>197</v>
       </c>
@@ -3861,8 +4299,11 @@
       <c r="F145" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G145" s="3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>198</v>
       </c>
@@ -3881,8 +4322,11 @@
       <c r="F146" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G146" s="3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>199</v>
       </c>
@@ -3901,8 +4345,11 @@
       <c r="F147" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G147" s="3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>200</v>
       </c>
@@ -3921,8 +4368,11 @@
       <c r="F148" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G148" s="3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>201</v>
       </c>
@@ -3941,8 +4391,11 @@
       <c r="F149" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G149" s="3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>202</v>
       </c>
@@ -3958,8 +4411,11 @@
       <c r="E150" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G150" s="3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>203</v>
       </c>
@@ -3975,8 +4431,11 @@
       <c r="E151" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G151" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>204</v>
       </c>
@@ -3989,8 +4448,11 @@
       <c r="D152" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G152" s="3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>205</v>
       </c>
@@ -4006,8 +4468,11 @@
       <c r="E153" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G153" s="3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>206</v>
       </c>
@@ -4023,8 +4488,11 @@
       <c r="E154" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G154" s="3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>207</v>
       </c>
@@ -4040,8 +4508,11 @@
       <c r="E155" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G155" s="3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>208</v>
       </c>
@@ -4057,8 +4528,11 @@
       <c r="E156" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G156" s="3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>209</v>
       </c>
@@ -4074,8 +4548,11 @@
       <c r="E157" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G157" s="3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>210</v>
       </c>
@@ -4091,8 +4568,11 @@
       <c r="E158" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G158" s="3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>211</v>
       </c>
@@ -4108,8 +4588,11 @@
       <c r="E159" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G159" s="3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>212</v>
       </c>
@@ -4125,8 +4608,11 @@
       <c r="E160" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G160" s="3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>213</v>
       </c>
@@ -4142,8 +4628,11 @@
       <c r="E161" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G161" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>214</v>
       </c>
@@ -4159,8 +4648,11 @@
       <c r="E162" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G162" s="3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>215</v>
       </c>
@@ -4176,8 +4668,11 @@
       <c r="E163" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G163" s="3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>216</v>
       </c>
@@ -4193,8 +4688,11 @@
       <c r="E164" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G164" s="3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>217</v>
       </c>
@@ -4213,8 +4711,11 @@
       <c r="F165" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G165" s="3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>218</v>
       </c>
@@ -4230,8 +4731,11 @@
       <c r="E166" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G166" s="3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>219</v>
       </c>
@@ -4247,8 +4751,11 @@
       <c r="E167" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G167" s="3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>220</v>
       </c>
@@ -4267,8 +4774,11 @@
       <c r="F168" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G168" s="3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>221</v>
       </c>
@@ -4287,8 +4797,11 @@
       <c r="F169" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G169" s="3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>222</v>
       </c>
@@ -4304,8 +4817,11 @@
       <c r="E170" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G170" s="3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>223</v>
       </c>
@@ -4321,8 +4837,11 @@
       <c r="E171" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G171" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>224</v>
       </c>
@@ -4335,8 +4854,11 @@
       <c r="D172" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G172" s="3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>225</v>
       </c>
@@ -4349,8 +4871,11 @@
       <c r="D173" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G173" s="3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>226</v>
       </c>
@@ -4363,8 +4888,11 @@
       <c r="D174" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G174" s="3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>227</v>
       </c>
@@ -4377,8 +4905,11 @@
       <c r="D175" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G175" s="3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>228</v>
       </c>
@@ -4391,8 +4922,11 @@
       <c r="D176" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G176" s="3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>229</v>
       </c>
@@ -4405,8 +4939,11 @@
       <c r="D177" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G177" s="3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>230</v>
       </c>
@@ -4419,8 +4956,11 @@
       <c r="D178" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G178" s="3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>231</v>
       </c>
@@ -4433,8 +4973,11 @@
       <c r="D179" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G179" s="3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>232</v>
       </c>
@@ -4447,8 +4990,11 @@
       <c r="D180" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G180" s="3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>233</v>
       </c>
@@ -4461,8 +5007,11 @@
       <c r="D181" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G181" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>234</v>
       </c>
@@ -4475,8 +5024,11 @@
       <c r="D182" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G182" s="3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>235</v>
       </c>
@@ -4489,8 +5041,11 @@
       <c r="D183" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G183" s="3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>236</v>
       </c>
@@ -4503,8 +5058,11 @@
       <c r="D184" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G184" s="3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>237</v>
       </c>
@@ -4517,8 +5075,11 @@
       <c r="D185" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G185" s="3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>238</v>
       </c>
@@ -4531,8 +5092,11 @@
       <c r="D186" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G186" s="3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>239</v>
       </c>
@@ -4545,8 +5109,11 @@
       <c r="D187" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G187" s="3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>240</v>
       </c>
@@ -4559,8 +5126,11 @@
       <c r="D188" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G188" s="3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>241</v>
       </c>
@@ -4573,8 +5143,11 @@
       <c r="D189" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G189" s="3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>242</v>
       </c>
@@ -4587,8 +5160,11 @@
       <c r="D190" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G190" s="3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>243</v>
       </c>
@@ -4601,8 +5177,11 @@
       <c r="D191" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G191" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>244</v>
       </c>
@@ -4612,8 +5191,11 @@
       <c r="C192" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G192" s="3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>245</v>
       </c>
@@ -4623,8 +5205,11 @@
       <c r="C193" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G193" s="3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>246</v>
       </c>
@@ -4637,8 +5222,11 @@
       <c r="D194" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G194" s="3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>247</v>
       </c>
@@ -4651,8 +5239,11 @@
       <c r="D195" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G195" s="3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>248</v>
       </c>
@@ -4665,8 +5256,11 @@
       <c r="D196" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G196" s="3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>249</v>
       </c>
@@ -4679,8 +5273,11 @@
       <c r="D197" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G197" s="3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>250</v>
       </c>
@@ -4693,8 +5290,11 @@
       <c r="D198" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G198" s="3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>251</v>
       </c>
@@ -4707,8 +5307,11 @@
       <c r="D199" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G199" s="3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>252</v>
       </c>
@@ -4721,8 +5324,11 @@
       <c r="D200" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G200" s="3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>253</v>
       </c>
@@ -4735,8 +5341,11 @@
       <c r="D201" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G201" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>254</v>
       </c>
@@ -4749,8 +5358,11 @@
       <c r="D202" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G202" s="3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>255</v>
       </c>
@@ -4763,8 +5375,11 @@
       <c r="D203" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G203" s="3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>256</v>
       </c>
@@ -4780,8 +5395,11 @@
       <c r="E204" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G204" s="3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>257</v>
       </c>
@@ -4794,8 +5412,11 @@
       <c r="D205" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G205" s="3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>258</v>
       </c>
@@ -4808,8 +5429,11 @@
       <c r="D206" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G206" s="3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>259</v>
       </c>
@@ -4825,8 +5449,11 @@
       <c r="E207" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G207" s="3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>260</v>
       </c>
@@ -4842,8 +5469,11 @@
       <c r="E208" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G208" s="3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>261</v>
       </c>
@@ -4856,8 +5486,11 @@
       <c r="D209" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G209" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>262</v>
       </c>
@@ -4870,8 +5503,11 @@
       <c r="D210" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G210" s="3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>263</v>
       </c>
@@ -4881,8 +5517,11 @@
       <c r="C211" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G211" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>264</v>
       </c>
@@ -4892,8 +5531,11 @@
       <c r="C212" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G212" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>265</v>
       </c>
@@ -4903,8 +5545,11 @@
       <c r="C213" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G213" s="3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>266</v>
       </c>
@@ -4914,8 +5559,11 @@
       <c r="C214" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G214" s="3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>267</v>
       </c>
@@ -4925,8 +5573,11 @@
       <c r="C215" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G215" s="3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>268</v>
       </c>
@@ -4936,8 +5587,11 @@
       <c r="C216" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G216" s="3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>269</v>
       </c>
@@ -4947,8 +5601,11 @@
       <c r="C217" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G217" s="3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>270</v>
       </c>
@@ -4958,8 +5615,11 @@
       <c r="C218" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G218" s="3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>271</v>
       </c>
@@ -4969,8 +5629,11 @@
       <c r="C219" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G219" s="3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>272</v>
       </c>
@@ -4980,8 +5643,11 @@
       <c r="C220" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G220" s="3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>273</v>
       </c>
@@ -4991,8 +5657,11 @@
       <c r="C221" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G221" s="3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>274</v>
       </c>
@@ -5002,8 +5671,11 @@
       <c r="C222" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G222" s="3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>275</v>
       </c>
@@ -5013,8 +5685,11 @@
       <c r="C223" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G223" s="3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>276</v>
       </c>
@@ -5024,8 +5699,11 @@
       <c r="C224" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G224" s="3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>277</v>
       </c>
@@ -5035,8 +5713,11 @@
       <c r="C225" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G225" s="3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>278</v>
       </c>
@@ -5046,8 +5727,11 @@
       <c r="C226" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G226" s="3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>279</v>
       </c>
@@ -5057,8 +5741,11 @@
       <c r="C227" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G227" s="3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>280</v>
       </c>
@@ -5068,8 +5755,11 @@
       <c r="C228" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G228" s="3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>282</v>
       </c>
@@ -5079,8 +5769,11 @@
       <c r="C229" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G229" s="3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>283</v>
       </c>
@@ -5090,8 +5783,11 @@
       <c r="C230" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G230" s="3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>284</v>
       </c>
@@ -5101,8 +5797,11 @@
       <c r="C231" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G231" s="3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>285</v>
       </c>
@@ -5112,8 +5811,11 @@
       <c r="C232" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G232" s="3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>286</v>
       </c>
@@ -5126,8 +5828,11 @@
       <c r="D233" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G233" s="3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>287</v>
       </c>
@@ -5140,8 +5845,11 @@
       <c r="D234" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G234" s="3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>288</v>
       </c>
@@ -5151,8 +5859,11 @@
       <c r="C235" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G235" s="3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>289</v>
       </c>
@@ -5162,16 +5873,22 @@
       <c r="C236" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G236" s="3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>290</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G237" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>291</v>
       </c>
@@ -5181,8 +5898,11 @@
       <c r="C238" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G238" s="3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>292</v>
       </c>
@@ -5195,8 +5915,11 @@
       <c r="D239" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G239" s="3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>293</v>
       </c>
@@ -5209,8 +5932,11 @@
       <c r="D240" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G240" s="3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>294</v>
       </c>
@@ -5220,8 +5946,11 @@
       <c r="C241" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G241" s="3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>295</v>
       </c>
@@ -5237,8 +5966,11 @@
       <c r="E242" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G242" s="3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>296</v>
       </c>
@@ -5254,8 +5986,11 @@
       <c r="E243" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G243" s="3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>297</v>
       </c>
@@ -5268,8 +6003,11 @@
       <c r="D244" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G244" s="3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>298</v>
       </c>
@@ -5285,8 +6023,11 @@
       <c r="E245" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G245" s="3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>299</v>
       </c>
@@ -5302,8 +6043,11 @@
       <c r="E246" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G246" s="3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>300</v>
       </c>
@@ -5319,8 +6063,11 @@
       <c r="E247" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G247" s="3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>301</v>
       </c>
@@ -5336,8 +6083,11 @@
       <c r="E248" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G248" s="3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>302</v>
       </c>
@@ -5353,8 +6103,11 @@
       <c r="E249" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G249" s="3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>303</v>
       </c>
@@ -5370,8 +6123,11 @@
       <c r="E250" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G250" s="3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>304</v>
       </c>
@@ -5387,8 +6143,11 @@
       <c r="E251" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G251" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>305</v>
       </c>
@@ -5401,8 +6160,11 @@
       <c r="D252" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G252" s="3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>306</v>
       </c>
@@ -5415,8 +6177,11 @@
       <c r="D253" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G253" s="3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>307</v>
       </c>
@@ -5426,8 +6191,11 @@
       <c r="C254" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G254" s="3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>308</v>
       </c>
@@ -5440,8 +6208,11 @@
       <c r="D255" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G255" s="3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>309</v>
       </c>
@@ -5454,8 +6225,11 @@
       <c r="D256" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G256" s="3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>310</v>
       </c>
@@ -5468,8 +6242,11 @@
       <c r="D257" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G257" s="3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>311</v>
       </c>
@@ -5482,8 +6259,11 @@
       <c r="D258" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G258" s="3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>312</v>
       </c>
@@ -5496,8 +6276,11 @@
       <c r="D259" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G259" s="3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>313</v>
       </c>
@@ -5510,8 +6293,11 @@
       <c r="D260" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G260" s="3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>314</v>
       </c>
@@ -5524,8 +6310,11 @@
       <c r="D261" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G261" s="3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>315</v>
       </c>
@@ -5538,8 +6327,11 @@
       <c r="D262" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G262" s="3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>316</v>
       </c>
@@ -5552,8 +6344,11 @@
       <c r="D263" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G263" s="3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>317</v>
       </c>
@@ -5566,8 +6361,11 @@
       <c r="D264" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G264" s="3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>318</v>
       </c>
@@ -5580,8 +6378,11 @@
       <c r="D265" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G265" s="3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>319</v>
       </c>
@@ -5594,8 +6395,11 @@
       <c r="D266" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G266" s="3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>320</v>
       </c>
@@ -5611,8 +6415,11 @@
       <c r="E267" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G267" s="3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>321</v>
       </c>
@@ -5625,8 +6432,11 @@
       <c r="D268" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G268" s="3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>322</v>
       </c>
@@ -5639,8 +6449,11 @@
       <c r="D269" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G269" s="3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>323</v>
       </c>
@@ -5656,8 +6469,11 @@
       <c r="E270" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G270" s="3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>324</v>
       </c>
@@ -5673,8 +6489,11 @@
       <c r="E271" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G271" s="3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>325</v>
       </c>
@@ -5687,8 +6506,11 @@
       <c r="D272" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G272" s="3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>326</v>
       </c>
@@ -5701,8 +6523,11 @@
       <c r="D273" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G273" s="3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>327</v>
       </c>
@@ -5712,8 +6537,11 @@
       <c r="C274" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G274" s="3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>328</v>
       </c>
@@ -5723,8 +6551,11 @@
       <c r="C275" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G275" s="3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>329</v>
       </c>
@@ -5734,8 +6565,11 @@
       <c r="C276" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G276" s="3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>330</v>
       </c>
@@ -5745,8 +6579,11 @@
       <c r="C277" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G277" s="3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>331</v>
       </c>
@@ -5756,8 +6593,11 @@
       <c r="C278" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G278" s="3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>332</v>
       </c>
@@ -5767,8 +6607,11 @@
       <c r="C279" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G279" s="3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>333</v>
       </c>
@@ -5778,8 +6621,11 @@
       <c r="C280" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G280" s="3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>334</v>
       </c>
@@ -5789,8 +6635,11 @@
       <c r="C281" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G281" s="3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>335</v>
       </c>
@@ -5800,8 +6649,11 @@
       <c r="C282" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G282" s="3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>336</v>
       </c>
@@ -5811,8 +6663,11 @@
       <c r="C283" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G283" s="3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>337</v>
       </c>
@@ -5822,8 +6677,11 @@
       <c r="C284" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G284" s="3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>338</v>
       </c>
@@ -5833,8 +6691,11 @@
       <c r="C285" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G285" s="3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>339</v>
       </c>
@@ -5844,8 +6705,11 @@
       <c r="C286" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G286" s="3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>340</v>
       </c>
@@ -5855,8 +6719,11 @@
       <c r="C287" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G287" s="3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>341</v>
       </c>
@@ -5866,8 +6733,11 @@
       <c r="C288" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G288" s="3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>342</v>
       </c>
@@ -5877,8 +6747,11 @@
       <c r="C289" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G289" s="3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>343</v>
       </c>
@@ -5888,8 +6761,11 @@
       <c r="C290" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G290" s="3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>344</v>
       </c>
@@ -5899,8 +6775,11 @@
       <c r="C291" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G291" s="3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>345</v>
       </c>
@@ -5910,8 +6789,11 @@
       <c r="C292" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G292" s="3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>346</v>
       </c>
@@ -5921,8 +6803,11 @@
       <c r="C293" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G293" s="3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>347</v>
       </c>
@@ -5931,6 +6816,9 @@
       </c>
       <c r="C294" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="G294" s="3">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
